--- a/speedTest/multithreads_comparaisons.xlsx
+++ b/speedTest/multithreads_comparaisons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\Developpement\Programmes\Programmes\C\cMergeSortParallel\speedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F4238-ADBA-45DF-8914-22868A959890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599306F2-E333-4101-8623-AC2EF37D8F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{38B7C94A-5D90-431D-AE1D-A623DF3C50F1}"/>
   </bookViews>
@@ -251,9 +251,6 @@
     <t xml:space="preserve">0.080874 </t>
   </si>
   <si>
-    <t xml:space="preserve">0.053078 </t>
-  </si>
-  <si>
     <t>0.089925</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.129139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.083078 </t>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4673BE-E2A9-4526-AF85-804EA95764D2}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -958,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -975,7 +975,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -992,7 +992,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1026,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1077,7 +1077,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
@@ -1094,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -1111,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>16</v>
@@ -1179,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -1230,7 +1230,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>20</v>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
@@ -1281,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>23</v>
@@ -1298,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
@@ -1315,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>25</v>
@@ -1332,7 +1332,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
@@ -1349,7 +1349,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>24</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>27</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>28</v>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
@@ -1417,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1434,13 +1434,13 @@
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1451,13 +1451,13 @@
         <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1468,13 +1468,13 @@
         <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/speedTest/multithreads_comparaisons.xlsx
+++ b/speedTest/multithreads_comparaisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\Developpement\Programmes\Programmes\C\cMergeSortParallel\speedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93373D5F-BBED-44F4-A76A-AABBC3A964D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F21E91-7399-4204-BD9B-D938B9B63F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{38B7C94A-5D90-431D-AE1D-A623DF3C50F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>Taille du tableau</t>
   </si>
@@ -203,142 +203,7 @@
     <t>0.714466</t>
   </si>
   <si>
-    <t>0.000020</t>
-  </si>
-  <si>
-    <t>0.000030</t>
-  </si>
-  <si>
-    <t>0.000019</t>
-  </si>
-  <si>
-    <t>0.000013</t>
-  </si>
-  <si>
     <t>0.000011</t>
-  </si>
-  <si>
-    <t>0.000040</t>
-  </si>
-  <si>
-    <t>0.000024</t>
-  </si>
-  <si>
-    <t>0.000064</t>
-  </si>
-  <si>
-    <t>0.000042</t>
-  </si>
-  <si>
-    <t>0.000033</t>
-  </si>
-  <si>
-    <t>0.000037</t>
-  </si>
-  <si>
-    <t>0.000067</t>
-  </si>
-  <si>
-    <t>0.000375</t>
-  </si>
-  <si>
-    <t>0.000801</t>
-  </si>
-  <si>
-    <t>0.000624</t>
-  </si>
-  <si>
-    <t>0.000511</t>
-  </si>
-  <si>
-    <t>0.000455</t>
-  </si>
-  <si>
-    <t>0.000481</t>
-  </si>
-  <si>
-    <t>0.002134</t>
-  </si>
-  <si>
-    <t>0.002932</t>
-  </si>
-  <si>
-    <t>0.002386</t>
-  </si>
-  <si>
-    <t>0.002693</t>
-  </si>
-  <si>
-    <t>0.001739</t>
-  </si>
-  <si>
-    <t>0.002255</t>
-  </si>
-  <si>
-    <t>0.002036</t>
-  </si>
-  <si>
-    <t>0.019030</t>
-  </si>
-  <si>
-    <t>0.018802</t>
-  </si>
-  <si>
-    <t>0.020325</t>
-  </si>
-  <si>
-    <t>0.012608</t>
-  </si>
-  <si>
-    <t>0.019392</t>
-  </si>
-  <si>
-    <t>0.019837</t>
-  </si>
-  <si>
-    <t>0.019059</t>
-  </si>
-  <si>
-    <t>0.226947</t>
-  </si>
-  <si>
-    <t>0.127819</t>
-  </si>
-  <si>
-    <t>0.128531</t>
-  </si>
-  <si>
-    <t>0.130667</t>
-  </si>
-  <si>
-    <t>0.129720</t>
-  </si>
-  <si>
-    <t>0.134432</t>
-  </si>
-  <si>
-    <t>0.129216</t>
-  </si>
-  <si>
-    <t>2.641201</t>
-  </si>
-  <si>
-    <t>1.409749</t>
-  </si>
-  <si>
-    <t>1.400941</t>
-  </si>
-  <si>
-    <t>1.385083</t>
-  </si>
-  <si>
-    <t>1.394280</t>
-  </si>
-  <si>
-    <t>1.396878</t>
-  </si>
-  <si>
-    <t>1.386929</t>
   </si>
   <si>
     <t>0.000023</t>
@@ -864,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4673BE-E2A9-4526-AF85-804EA95764D2}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +743,7 @@
     <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -903,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -911,11 +776,8 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -923,19 +785,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -943,19 +802,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -963,19 +819,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -983,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -991,11 +844,8 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1003,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -1011,11 +861,8 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -1023,7 +870,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -1031,11 +878,8 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -1043,19 +887,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -1063,19 +904,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -1083,19 +921,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -1103,19 +938,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>100</v>
       </c>
@@ -1123,19 +955,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -1143,19 +972,16 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100</v>
       </c>
@@ -1163,19 +989,16 @@
         <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1000</v>
       </c>
@@ -1183,19 +1006,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000</v>
       </c>
@@ -1203,19 +1023,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1000</v>
       </c>
@@ -1223,19 +1040,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1000</v>
       </c>
@@ -1243,19 +1057,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1000</v>
       </c>
@@ -1263,19 +1074,16 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1000</v>
       </c>
@@ -1283,19 +1091,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1000</v>
       </c>
@@ -1303,19 +1108,16 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>10000</v>
       </c>
@@ -1323,19 +1125,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J23" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10000</v>
       </c>
@@ -1343,19 +1142,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10000</v>
       </c>
@@ -1363,19 +1159,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10000</v>
       </c>
@@ -1383,19 +1176,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10000</v>
       </c>
@@ -1403,19 +1193,16 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10000</v>
       </c>
@@ -1423,19 +1210,16 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10000</v>
       </c>
@@ -1443,19 +1227,16 @@
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>100000</v>
       </c>
@@ -1463,19 +1244,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>100000</v>
       </c>
@@ -1483,19 +1261,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>100000</v>
       </c>
@@ -1503,19 +1278,16 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J32" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>100000</v>
       </c>
@@ -1523,19 +1295,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>100000</v>
       </c>
@@ -1543,19 +1312,16 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>100000</v>
       </c>
@@ -1563,19 +1329,16 @@
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>100000</v>
       </c>
@@ -1583,19 +1346,16 @@
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1000000</v>
       </c>
@@ -1603,19 +1363,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1000000</v>
       </c>
@@ -1623,19 +1380,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J38" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1000000</v>
       </c>
@@ -1643,19 +1397,16 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J39" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1000000</v>
       </c>
@@ -1663,19 +1414,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1000000</v>
       </c>
@@ -1683,19 +1431,16 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1000000</v>
       </c>
@@ -1703,19 +1448,16 @@
         <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J42" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1000000</v>
       </c>
@@ -1723,19 +1465,16 @@
         <v>48</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>10000000</v>
       </c>
@@ -1743,19 +1482,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10000000</v>
       </c>
@@ -1763,19 +1499,16 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>10000000</v>
       </c>
@@ -1783,19 +1516,16 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J46" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>10000000</v>
       </c>
@@ -1803,19 +1533,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>10000000</v>
       </c>
@@ -1823,19 +1550,16 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J48" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>10000000</v>
       </c>
@@ -1843,19 +1567,16 @@
         <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>10000000</v>
       </c>
@@ -1863,19 +1584,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J50" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
     </row>
   </sheetData>

--- a/speedTest/multithreads_comparaisons.xlsx
+++ b/speedTest/multithreads_comparaisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\Developpement\Programmes\Programmes\C\cMergeSortParallel\speedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C8EFE2-E572-43E7-9AC1-767CC76CAAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0751DFB1-AA98-4F90-B933-CE4C792D34B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{38B7C94A-5D90-431D-AE1D-A623DF3C50F1}"/>
   </bookViews>
@@ -857,7 +857,7 @@
                   <c:v>0.140376</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1255587</c:v>
+                  <c:v>0.125587</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.102441</c:v>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4673BE-E2A9-4526-AF85-804EA95764D2}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3064,7 +3064,7 @@
         <v>0.21967800000000001</v>
       </c>
       <c r="D39" s="3">
-        <v>0.1255587</v>
+        <v>0.125587</v>
       </c>
       <c r="E39" s="1">
         <v>0.10348400000000001</v>
